--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.23887286195224</v>
+        <v>1.349921333333333</v>
       </c>
       <c r="H2">
-        <v>1.23887286195224</v>
+        <v>4.049764</v>
       </c>
       <c r="I2">
-        <v>0.04707038110540607</v>
+        <v>0.04667688658065213</v>
       </c>
       <c r="J2">
-        <v>0.04707038110540607</v>
+        <v>0.05517961664445568</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N2">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O2">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P2">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q2">
-        <v>15.5043615111672</v>
+        <v>17.29225019410756</v>
       </c>
       <c r="R2">
-        <v>15.5043615111672</v>
+        <v>155.630251746968</v>
       </c>
       <c r="S2">
-        <v>0.01431055239838467</v>
+        <v>0.01406917705845002</v>
       </c>
       <c r="T2">
-        <v>0.01431055239838467</v>
+        <v>0.01821592650384698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.23887286195224</v>
+        <v>1.349921333333333</v>
       </c>
       <c r="H3">
-        <v>1.23887286195224</v>
+        <v>4.049764</v>
       </c>
       <c r="I3">
-        <v>0.04707038110540607</v>
+        <v>0.04667688658065213</v>
       </c>
       <c r="J3">
-        <v>0.04707038110540607</v>
+        <v>0.05517961664445568</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N3">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P3">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q3">
-        <v>13.69757093772903</v>
+        <v>15.79546821907822</v>
       </c>
       <c r="R3">
-        <v>13.69757093772903</v>
+        <v>142.159213971704</v>
       </c>
       <c r="S3">
-        <v>0.01264288158488673</v>
+        <v>0.01285137773284461</v>
       </c>
       <c r="T3">
-        <v>0.01264288158488673</v>
+        <v>0.0166391929877712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.23887286195224</v>
+        <v>1.349921333333333</v>
       </c>
       <c r="H4">
-        <v>1.23887286195224</v>
+        <v>4.049764</v>
       </c>
       <c r="I4">
-        <v>0.04707038110540607</v>
+        <v>0.04667688658065213</v>
       </c>
       <c r="J4">
-        <v>0.04707038110540607</v>
+        <v>0.05517961664445568</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N4">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O4">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P4">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q4">
-        <v>2.810335574718207</v>
+        <v>3.384694656916444</v>
       </c>
       <c r="R4">
-        <v>2.810335574718207</v>
+        <v>30.462251912248</v>
       </c>
       <c r="S4">
-        <v>0.002593944579406402</v>
+        <v>0.002753827170114274</v>
       </c>
       <c r="T4">
-        <v>0.002593944579406402</v>
+        <v>0.003565490229222046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.23887286195224</v>
+        <v>1.349921333333333</v>
       </c>
       <c r="H5">
-        <v>1.23887286195224</v>
+        <v>4.049764</v>
       </c>
       <c r="I5">
-        <v>0.04707038110540607</v>
+        <v>0.04667688658065213</v>
       </c>
       <c r="J5">
-        <v>0.04707038110540607</v>
+        <v>0.05517961664445568</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N5">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O5">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P5">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q5">
-        <v>5.259741929846622</v>
+        <v>5.932487134307999</v>
       </c>
       <c r="R5">
-        <v>5.259741929846622</v>
+        <v>53.39238420877199</v>
       </c>
       <c r="S5">
-        <v>0.004854750867027772</v>
+        <v>0.004826740936121623</v>
       </c>
       <c r="T5">
-        <v>0.004854750867027772</v>
+        <v>0.006249374627970418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.23887286195224</v>
+        <v>1.349921333333333</v>
       </c>
       <c r="H6">
-        <v>1.23887286195224</v>
+        <v>4.049764</v>
       </c>
       <c r="I6">
-        <v>0.04707038110540607</v>
+        <v>0.04667688658065213</v>
       </c>
       <c r="J6">
-        <v>0.04707038110540607</v>
+        <v>0.05517961664445568</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N6">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O6">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P6">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q6">
-        <v>13.72505744199509</v>
+        <v>14.96507940998666</v>
       </c>
       <c r="R6">
-        <v>13.72505744199509</v>
+        <v>89.79047645991999</v>
       </c>
       <c r="S6">
-        <v>0.0126682516757005</v>
+        <v>0.0121757636831216</v>
       </c>
       <c r="T6">
-        <v>0.0126682516757005</v>
+        <v>0.01050963229564505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.0512486038009</v>
+        <v>13.900271</v>
       </c>
       <c r="H7">
-        <v>13.0512486038009</v>
+        <v>41.700813</v>
       </c>
       <c r="I7">
-        <v>0.4958759405821825</v>
+        <v>0.4806364318320731</v>
       </c>
       <c r="J7">
-        <v>0.4958759405821825</v>
+        <v>0.5681898686200316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N7">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O7">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P7">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q7">
-        <v>163.3349819339623</v>
+        <v>178.0599787280673</v>
       </c>
       <c r="R7">
-        <v>163.3349819339623</v>
+        <v>1602.539808552606</v>
       </c>
       <c r="S7">
-        <v>0.1507584698519595</v>
+        <v>0.1448716818012888</v>
       </c>
       <c r="T7">
-        <v>0.1507584698519595</v>
+        <v>0.1875711633464731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.0512486038009</v>
+        <v>13.900271</v>
       </c>
       <c r="H8">
-        <v>13.0512486038009</v>
+        <v>41.700813</v>
       </c>
       <c r="I8">
-        <v>0.4958759405821825</v>
+        <v>0.4806364318320731</v>
       </c>
       <c r="J8">
-        <v>0.4958759405821825</v>
+        <v>0.5681898686200316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N8">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P8">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q8">
-        <v>144.3008472191326</v>
+        <v>162.6474694454353</v>
       </c>
       <c r="R8">
-        <v>144.3008472191326</v>
+        <v>1463.827225008918</v>
       </c>
       <c r="S8">
-        <v>0.1331899307026181</v>
+        <v>0.13233188393934</v>
       </c>
       <c r="T8">
-        <v>0.1331899307026181</v>
+        <v>0.1713353852851568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.0512486038009</v>
+        <v>13.900271</v>
       </c>
       <c r="H9">
-        <v>13.0512486038009</v>
+        <v>41.700813</v>
       </c>
       <c r="I9">
-        <v>0.4958759405821825</v>
+        <v>0.4806364318320731</v>
       </c>
       <c r="J9">
-        <v>0.4958759405821825</v>
+        <v>0.5681898686200316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N9">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O9">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P9">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q9">
-        <v>29.60625692288915</v>
+        <v>34.85252941904066</v>
       </c>
       <c r="R9">
-        <v>29.60625692288915</v>
+        <v>313.672764771366</v>
       </c>
       <c r="S9">
-        <v>0.02732662616966731</v>
+        <v>0.02835642567202792</v>
       </c>
       <c r="T9">
-        <v>0.02732662616966731</v>
+        <v>0.03671419897606765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.0512486038009</v>
+        <v>13.900271</v>
       </c>
       <c r="H10">
-        <v>13.0512486038009</v>
+        <v>41.700813</v>
       </c>
       <c r="I10">
-        <v>0.4958759405821825</v>
+        <v>0.4806364318320731</v>
       </c>
       <c r="J10">
-        <v>0.4958759405821825</v>
+        <v>0.5681898686200316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N10">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O10">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P10">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q10">
-        <v>55.4102052167724</v>
+        <v>61.08739586126099</v>
       </c>
       <c r="R10">
-        <v>55.4102052167724</v>
+        <v>549.7865627513489</v>
       </c>
       <c r="S10">
-        <v>0.05114371492103929</v>
+        <v>0.04970141992882863</v>
       </c>
       <c r="T10">
-        <v>0.05114371492103929</v>
+        <v>0.06435041714231718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.0512486038009</v>
+        <v>13.900271</v>
       </c>
       <c r="H11">
-        <v>13.0512486038009</v>
+        <v>41.700813</v>
       </c>
       <c r="I11">
-        <v>0.4958759405821825</v>
+        <v>0.4806364318320731</v>
       </c>
       <c r="J11">
-        <v>0.4958759405821825</v>
+        <v>0.5681898686200316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N11">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O11">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P11">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q11">
-        <v>144.5904113959284</v>
+        <v>154.09687527619</v>
       </c>
       <c r="R11">
-        <v>144.5904113959284</v>
+        <v>924.5812516571399</v>
       </c>
       <c r="S11">
-        <v>0.1334571989368982</v>
+        <v>0.1253750204905879</v>
       </c>
       <c r="T11">
-        <v>0.1334571989368982</v>
+        <v>0.1082187038700169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>12.0294628005819</v>
+        <v>0.07738033333333333</v>
       </c>
       <c r="H12">
-        <v>12.0294628005819</v>
+        <v>0.232141</v>
       </c>
       <c r="I12">
-        <v>0.4570536783124114</v>
+        <v>0.002675617425538665</v>
       </c>
       <c r="J12">
-        <v>0.4570536783124114</v>
+        <v>0.003163011816851695</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N12">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O12">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P12">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q12">
-        <v>150.5474417701384</v>
+        <v>0.9912281931268888</v>
       </c>
       <c r="R12">
-        <v>150.5474417701384</v>
+        <v>8.921053738142</v>
       </c>
       <c r="S12">
-        <v>0.1389555482399315</v>
+        <v>0.0008064748542200601</v>
       </c>
       <c r="T12">
-        <v>0.1389555482399315</v>
+        <v>0.001044175264170836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>12.0294628005819</v>
+        <v>0.07738033333333333</v>
       </c>
       <c r="H13">
-        <v>12.0294628005819</v>
+        <v>0.232141</v>
       </c>
       <c r="I13">
-        <v>0.4570536783124114</v>
+        <v>0.002675617425538665</v>
       </c>
       <c r="J13">
-        <v>0.4570536783124114</v>
+        <v>0.003163011816851695</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N13">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P13">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q13">
-        <v>133.0034946395454</v>
+        <v>0.9054294985695555</v>
       </c>
       <c r="R13">
-        <v>133.0034946395454</v>
+        <v>8.148865487125999</v>
       </c>
       <c r="S13">
-        <v>0.1227624547993529</v>
+        <v>0.0007366680325767825</v>
       </c>
       <c r="T13">
-        <v>0.1227624547993529</v>
+        <v>0.0009537935789281039</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>12.0294628005819</v>
+        <v>0.07738033333333333</v>
       </c>
       <c r="H14">
-        <v>12.0294628005819</v>
+        <v>0.232141</v>
       </c>
       <c r="I14">
-        <v>0.4570536783124114</v>
+        <v>0.002675617425538665</v>
       </c>
       <c r="J14">
-        <v>0.4570536783124114</v>
+        <v>0.003163011816851695</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N14">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O14">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P14">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q14">
-        <v>27.28837501529509</v>
+        <v>0.1940178248291111</v>
       </c>
       <c r="R14">
-        <v>27.28837501529509</v>
+        <v>1.746160423462</v>
       </c>
       <c r="S14">
-        <v>0.02518721717381789</v>
+        <v>0.0001578551720785452</v>
       </c>
       <c r="T14">
-        <v>0.02518721717381789</v>
+        <v>0.0002043814077318666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>12.0294628005819</v>
+        <v>0.07738033333333333</v>
       </c>
       <c r="H15">
-        <v>12.0294628005819</v>
+        <v>0.232141</v>
       </c>
       <c r="I15">
-        <v>0.4570536783124114</v>
+        <v>0.002675617425538665</v>
       </c>
       <c r="J15">
-        <v>0.4570536783124114</v>
+        <v>0.003163011816851695</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N15">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O15">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P15">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q15">
-        <v>51.07212517840268</v>
+        <v>0.340062654477</v>
       </c>
       <c r="R15">
-        <v>51.07212517840268</v>
+        <v>3.060563890293</v>
       </c>
       <c r="S15">
-        <v>0.04713965956843658</v>
+        <v>0.000276678954045769</v>
       </c>
       <c r="T15">
-        <v>0.04713965956843658</v>
+        <v>0.0003582273128784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07738033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.232141</v>
+      </c>
+      <c r="I16">
+        <v>0.002675617425538665</v>
+      </c>
+      <c r="J16">
+        <v>0.003163011816851695</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.08589</v>
+      </c>
+      <c r="N16">
+        <v>22.17178</v>
+      </c>
+      <c r="O16">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P16">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q16">
+        <v>0.8578298634966666</v>
+      </c>
+      <c r="R16">
+        <v>5.146979180979999</v>
+      </c>
+      <c r="S16">
+        <v>0.0006979404126175084</v>
+      </c>
+      <c r="T16">
+        <v>0.0006024342531424887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.223714</v>
+      </c>
+      <c r="H17">
+        <v>0.671142</v>
+      </c>
+      <c r="I17">
+        <v>0.007735467798496909</v>
+      </c>
+      <c r="J17">
+        <v>0.009144571948882275</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N17">
+        <v>38.429462</v>
+      </c>
+      <c r="O17">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P17">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q17">
+        <v>2.865736220622667</v>
+      </c>
+      <c r="R17">
+        <v>25.791625985604</v>
+      </c>
+      <c r="S17">
+        <v>0.002331596515096254</v>
+      </c>
+      <c r="T17">
+        <v>0.003018811304966134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.223714</v>
+      </c>
+      <c r="H18">
+        <v>0.671142</v>
+      </c>
+      <c r="I18">
+        <v>0.007735467798496909</v>
+      </c>
+      <c r="J18">
+        <v>0.009144571948882275</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N18">
+        <v>35.103086</v>
+      </c>
+      <c r="O18">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P18">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q18">
+        <v>2.617683927134666</v>
+      </c>
+      <c r="R18">
+        <v>23.559155344212</v>
+      </c>
+      <c r="S18">
+        <v>0.002129778267172309</v>
+      </c>
+      <c r="T18">
+        <v>0.002757509143791771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.223714</v>
+      </c>
+      <c r="H19">
+        <v>0.671142</v>
+      </c>
+      <c r="I19">
+        <v>0.007735467798496909</v>
+      </c>
+      <c r="J19">
+        <v>0.009144571948882275</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.521982</v>
+      </c>
+      <c r="O19">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P19">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q19">
+        <v>0.5609242270493332</v>
+      </c>
+      <c r="R19">
+        <v>5.048318043444</v>
+      </c>
+      <c r="S19">
+        <v>0.0004563745133308593</v>
+      </c>
+      <c r="T19">
+        <v>0.0005908863438512818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.223714</v>
+      </c>
+      <c r="H20">
+        <v>0.671142</v>
+      </c>
+      <c r="I20">
+        <v>0.007735467798496909</v>
+      </c>
+      <c r="J20">
+        <v>0.009144571948882275</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.394691</v>
+      </c>
+      <c r="N20">
+        <v>13.184073</v>
+      </c>
+      <c r="O20">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P20">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q20">
+        <v>0.9831539023739999</v>
+      </c>
+      <c r="R20">
+        <v>8.848385121366</v>
+      </c>
+      <c r="S20">
+        <v>0.0007999055168030876</v>
+      </c>
+      <c r="T20">
+        <v>0.001035669680150577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.223714</v>
+      </c>
+      <c r="H21">
+        <v>0.671142</v>
+      </c>
+      <c r="I21">
+        <v>0.007735467798496909</v>
+      </c>
+      <c r="J21">
+        <v>0.009144571948882275</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.08589</v>
+      </c>
+      <c r="N21">
+        <v>22.17178</v>
+      </c>
+      <c r="O21">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P21">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q21">
+        <v>2.48006879546</v>
+      </c>
+      <c r="R21">
+        <v>14.88041277276</v>
+      </c>
+      <c r="S21">
+        <v>0.002017812986094399</v>
+      </c>
+      <c r="T21">
+        <v>0.001741695476122513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.3692655</v>
+      </c>
+      <c r="H22">
+        <v>26.738531</v>
+      </c>
+      <c r="I22">
+        <v>0.4622755963632391</v>
+      </c>
+      <c r="J22">
+        <v>0.3643229309697786</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.80982066666667</v>
+      </c>
+      <c r="N22">
+        <v>38.429462</v>
+      </c>
+      <c r="O22">
+        <v>0.3014163559118313</v>
+      </c>
+      <c r="P22">
+        <v>0.3301205700869484</v>
+      </c>
+      <c r="Q22">
+        <v>171.2578935000537</v>
+      </c>
+      <c r="R22">
+        <v>1027.547361000322</v>
+      </c>
+      <c r="S22">
+        <v>0.1393374256827762</v>
+      </c>
+      <c r="T22">
+        <v>0.1202704936674912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.3692655</v>
+      </c>
+      <c r="H23">
+        <v>26.738531</v>
+      </c>
+      <c r="I23">
+        <v>0.4622755963632391</v>
+      </c>
+      <c r="J23">
+        <v>0.3643229309697786</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.70102866666667</v>
+      </c>
+      <c r="N23">
+        <v>35.103086</v>
+      </c>
+      <c r="O23">
+        <v>0.2753263697363138</v>
+      </c>
+      <c r="P23">
+        <v>0.3015460055655002</v>
+      </c>
+      <c r="Q23">
+        <v>156.4341588677777</v>
+      </c>
+      <c r="R23">
+        <v>938.604953206666</v>
+      </c>
+      <c r="S23">
+        <v>0.1272766617643801</v>
+      </c>
+      <c r="T23">
+        <v>0.1098601245698522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>12.0294628005819</v>
-      </c>
-      <c r="H16">
-        <v>12.0294628005819</v>
-      </c>
-      <c r="I16">
-        <v>0.4570536783124114</v>
-      </c>
-      <c r="J16">
-        <v>0.4570536783124114</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="N16">
-        <v>11.0786650216608</v>
-      </c>
-      <c r="O16">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="P16">
-        <v>0.2691342491434712</v>
-      </c>
-      <c r="Q16">
-        <v>133.2703887581765</v>
-      </c>
-      <c r="R16">
-        <v>133.2703887581765</v>
-      </c>
-      <c r="S16">
-        <v>0.1230087985308725</v>
-      </c>
-      <c r="T16">
-        <v>0.1230087985308725</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.3692655</v>
+      </c>
+      <c r="H24">
+        <v>26.738531</v>
+      </c>
+      <c r="I24">
+        <v>0.4622755963632391</v>
+      </c>
+      <c r="J24">
+        <v>0.3643229309697786</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.507327333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.521982</v>
+      </c>
+      <c r="O24">
+        <v>0.05899766183753465</v>
+      </c>
+      <c r="P24">
+        <v>0.06461607466749766</v>
+      </c>
+      <c r="Q24">
+        <v>33.52112481474033</v>
+      </c>
+      <c r="R24">
+        <v>201.126748888442</v>
+      </c>
+      <c r="S24">
+        <v>0.02727317930998304</v>
+      </c>
+      <c r="T24">
+        <v>0.02354111771062481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.3692655</v>
+      </c>
+      <c r="H25">
+        <v>26.738531</v>
+      </c>
+      <c r="I25">
+        <v>0.4622755963632391</v>
+      </c>
+      <c r="J25">
+        <v>0.3643229309697786</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.394691</v>
+      </c>
+      <c r="N25">
+        <v>13.184073</v>
+      </c>
+      <c r="O25">
+        <v>0.1034075168612968</v>
+      </c>
+      <c r="P25">
+        <v>0.113255129484455</v>
+      </c>
+      <c r="Q25">
+        <v>58.7537907694605</v>
+      </c>
+      <c r="R25">
+        <v>352.522744616763</v>
+      </c>
+      <c r="S25">
+        <v>0.04780277152549768</v>
+      </c>
+      <c r="T25">
+        <v>0.04126144072113844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.3692655</v>
+      </c>
+      <c r="H26">
+        <v>26.738531</v>
+      </c>
+      <c r="I26">
+        <v>0.4622755963632391</v>
+      </c>
+      <c r="J26">
+        <v>0.3643229309697786</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.08589</v>
+      </c>
+      <c r="N26">
+        <v>22.17178</v>
+      </c>
+      <c r="O26">
+        <v>0.2608520956530235</v>
+      </c>
+      <c r="P26">
+        <v>0.1904622201955989</v>
+      </c>
+      <c r="Q26">
+        <v>148.210206713795</v>
+      </c>
+      <c r="R26">
+        <v>592.84082685518</v>
+      </c>
+      <c r="S26">
+        <v>0.1205855580806021</v>
+      </c>
+      <c r="T26">
+        <v>0.06938975430067194</v>
       </c>
     </row>
   </sheetData>
